--- a/Cálculos proycto.xlsx
+++ b/Cálculos proycto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sapis\Documents\Fac\AMP\Computo_Movil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70B59DA2-F8A6-403B-86C6-6A530001D28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A2236-138D-447A-A483-A4029D570105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDAED0EF-F2F6-4F47-A24D-B365A47AEC0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Tarea</t>
   </si>
@@ -127,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -154,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -331,19 +331,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -369,17 +356,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -594,13 +570,85 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -617,59 +665,145 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7638451E-D4D9-4C12-8871-E83DFC00C236}">
-  <dimension ref="C3:S15"/>
+  <dimension ref="C3:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,16 +1129,17 @@
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="14.6640625" customWidth="1"/>
     <col min="16" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="3:19" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:32" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,13 +1155,13 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -1047,11 +1182,41 @@
       <c r="R4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="U4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="3:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:32" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1068,43 +1233,82 @@
         <f>AVERAGE(D5:F5)</f>
         <v>2</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="6">
-        <f>F5*10</f>
+      <c r="K5" s="15">
+        <f>F5*8</f>
+        <v>16</v>
+      </c>
+      <c r="L5" s="16">
+        <v>4</v>
+      </c>
+      <c r="M5" s="17">
+        <v>10</v>
+      </c>
+      <c r="N5" s="18">
+        <v>5</v>
+      </c>
+      <c r="O5" s="19">
+        <v>8</v>
+      </c>
+      <c r="P5" s="17">
+        <f>$K5*$L$5*M5</f>
+        <v>640</v>
+      </c>
+      <c r="Q5" s="18">
+        <f t="shared" ref="Q5:R5" si="0">$K5*$L$5*N5</f>
+        <v>320</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="S5" s="20">
+        <f>AVERAGE(P5:R5)</f>
+        <v>490.66666666666669</v>
+      </c>
+      <c r="U5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="42">
+        <f>K5</f>
+        <v>16</v>
+      </c>
+      <c r="W5" s="43">
+        <f t="shared" ref="W5:AD5" si="1">L5</f>
+        <v>4</v>
+      </c>
+      <c r="X5" s="48">
+        <f>M5*4</f>
+        <v>40</v>
+      </c>
+      <c r="Y5" s="48">
+        <f t="shared" ref="Y5:Z5" si="2">N5*4</f>
         <v>20</v>
       </c>
-      <c r="L5" s="11">
-        <v>4</v>
-      </c>
-      <c r="M5" s="20">
-        <v>10</v>
-      </c>
-      <c r="N5" s="21">
-        <v>5</v>
-      </c>
-      <c r="O5" s="22">
-        <v>8</v>
-      </c>
-      <c r="P5" s="20">
-        <f>$K5*$L$5*M5</f>
-        <v>800</v>
-      </c>
-      <c r="Q5" s="21">
-        <f t="shared" ref="Q5:R5" si="0">$K5*$L$5*N5</f>
-        <v>400</v>
-      </c>
-      <c r="R5" s="22">
-        <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="S5" s="23">
-        <f>AVERAGE(P5:R5)</f>
-        <v>613.33333333333337</v>
+      <c r="Z5" s="48">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="AA5" s="48">
+        <f>$K5*$L$5*X5</f>
+        <v>2560</v>
+      </c>
+      <c r="AB5" s="48">
+        <f t="shared" ref="AB5:AC5" si="3">$K5*$L$5*Y5</f>
+        <v>1280</v>
+      </c>
+      <c r="AC5" s="48">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="AD5" s="49">
+        <f>AVERAGE(AA5:AC5)</f>
+        <v>1962.6666666666667</v>
       </c>
     </row>
-    <row r="6" spans="3:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:32" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1118,46 +1322,85 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G13" si="1">AVERAGE(D6:F6)</f>
+        <f t="shared" ref="G6:G13" si="4">AVERAGE(D6:F6)</f>
         <v>2</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="7">
-        <f t="shared" ref="K6:K13" si="2">F6*10</f>
+      <c r="K6" s="15">
+        <f t="shared" ref="K6:K13" si="5">F6*8</f>
+        <v>16</v>
+      </c>
+      <c r="L6" s="21">
+        <v>4</v>
+      </c>
+      <c r="M6" s="22">
+        <v>25</v>
+      </c>
+      <c r="N6" s="23">
+        <v>10</v>
+      </c>
+      <c r="O6" s="24">
         <v>20</v>
       </c>
-      <c r="L6" s="12">
+      <c r="P6" s="22">
+        <f>$K6*$L6*M6</f>
+        <v>1600</v>
+      </c>
+      <c r="Q6" s="23">
+        <f>$K6*$L6*N6</f>
+        <v>640</v>
+      </c>
+      <c r="R6" s="24">
+        <f>$K6*$L6*O6</f>
+        <v>1280</v>
+      </c>
+      <c r="S6" s="25">
+        <f t="shared" ref="S6:S13" si="6">AVERAGE(P6:R6)</f>
+        <v>1173.3333333333333</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="44">
+        <f t="shared" ref="V6:V15" si="7">K6</f>
+        <v>16</v>
+      </c>
+      <c r="W6" s="45">
+        <f t="shared" ref="W6:W15" si="8">L6</f>
         <v>4</v>
       </c>
-      <c r="M6" s="24">
-        <v>25</v>
-      </c>
-      <c r="N6" s="25">
-        <v>10</v>
-      </c>
-      <c r="O6" s="26">
-        <v>20</v>
-      </c>
-      <c r="P6" s="24">
-        <f>$K6*$L6*M6</f>
-        <v>2000</v>
-      </c>
-      <c r="Q6" s="25">
-        <f>$K6*$L6*N6</f>
-        <v>800</v>
-      </c>
-      <c r="R6" s="26">
-        <f>$K6*$L6*O6</f>
-        <v>1600</v>
-      </c>
-      <c r="S6" s="27">
-        <f t="shared" ref="S6:S13" si="3">AVERAGE(P6:R6)</f>
-        <v>1466.6666666666667</v>
+      <c r="X6" s="48">
+        <f t="shared" ref="X6:X13" si="9">M6*4</f>
+        <v>100</v>
+      </c>
+      <c r="Y6" s="48">
+        <f t="shared" ref="Y6:Y13" si="10">N6*4</f>
+        <v>40</v>
+      </c>
+      <c r="Z6" s="48">
+        <f t="shared" ref="Z6:Z13" si="11">O6*4</f>
+        <v>80</v>
+      </c>
+      <c r="AA6" s="17">
+        <f t="shared" ref="AA6:AA13" si="12">$K6*$L$5*X6</f>
+        <v>6400</v>
+      </c>
+      <c r="AB6" s="17">
+        <f t="shared" ref="AB6:AB13" si="13">$K6*$L$5*Y6</f>
+        <v>2560</v>
+      </c>
+      <c r="AC6" s="17">
+        <f t="shared" ref="AC6:AC13" si="14">$K6*$L$5*Z6</f>
+        <v>5120</v>
+      </c>
+      <c r="AD6" s="20">
+        <f t="shared" ref="AD6:AD13" si="15">AVERAGE(AA6:AC6)</f>
+        <v>4693.333333333333</v>
       </c>
     </row>
-    <row r="7" spans="3:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:32" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -1171,46 +1414,85 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="7">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="K7" s="15">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="L7" s="21">
         <v>2</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="22">
         <v>40</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="23">
         <v>15</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="24">
         <v>30</v>
       </c>
-      <c r="P7" s="24">
-        <f t="shared" ref="P7:P13" si="4">$K7*$L7*M7</f>
-        <v>4000</v>
-      </c>
-      <c r="Q7" s="25">
+      <c r="P7" s="22">
+        <f t="shared" ref="P7:P13" si="16">$K7*$L7*M7</f>
+        <v>3200</v>
+      </c>
+      <c r="Q7" s="23">
         <f>$K7*$L7*N7</f>
-        <v>1500</v>
-      </c>
-      <c r="R7" s="26">
+        <v>1200</v>
+      </c>
+      <c r="R7" s="24">
         <f>$K7*$L7*O7</f>
-        <v>3000</v>
-      </c>
-      <c r="S7" s="27">
+        <v>2400</v>
+      </c>
+      <c r="S7" s="25">
         <f>AVERAGE(P7:R7)</f>
-        <v>2833.3333333333335</v>
+        <v>2266.6666666666665</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="44">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="W7" s="45">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="X7" s="48">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="Y7" s="48">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="Z7" s="48">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="AA7" s="17">
+        <f t="shared" si="12"/>
+        <v>25600</v>
+      </c>
+      <c r="AB7" s="17">
+        <f t="shared" si="13"/>
+        <v>9600</v>
+      </c>
+      <c r="AC7" s="17">
+        <f t="shared" si="14"/>
+        <v>19200</v>
+      </c>
+      <c r="AD7" s="20">
+        <f t="shared" si="15"/>
+        <v>18133.333333333332</v>
       </c>
     </row>
-    <row r="8" spans="3:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:32" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -1224,63 +1506,114 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="9">
-        <f t="shared" si="2"/>
+      <c r="K8" s="39">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="L8" s="26">
+        <v>2</v>
+      </c>
+      <c r="M8" s="27">
+        <v>40</v>
+      </c>
+      <c r="N8" s="28">
+        <v>15</v>
+      </c>
+      <c r="O8" s="29">
+        <v>30</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="16"/>
+        <v>3840</v>
+      </c>
+      <c r="Q8" s="28">
+        <f t="shared" ref="Q8:Q12" si="17">$K8*$L8*N8</f>
+        <v>1440</v>
+      </c>
+      <c r="R8" s="29">
+        <f t="shared" ref="R8:R13" si="18">$K8*$L8*O8</f>
+        <v>2880</v>
+      </c>
+      <c r="S8" s="30">
+        <f t="shared" si="6"/>
+        <v>2720</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="44">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="W8" s="45">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="X8" s="48">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="Y8" s="48">
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="L8" s="13">
-        <v>2</v>
-      </c>
-      <c r="M8" s="28">
-        <v>40</v>
-      </c>
-      <c r="N8" s="29">
-        <v>15</v>
-      </c>
-      <c r="O8" s="30">
-        <v>30</v>
-      </c>
-      <c r="P8" s="28">
-        <f t="shared" si="4"/>
-        <v>4800</v>
-      </c>
-      <c r="Q8" s="29">
-        <f t="shared" ref="Q7:Q13" si="5">$K8*$L8*N8</f>
-        <v>1800</v>
-      </c>
-      <c r="R8" s="30">
-        <f t="shared" ref="R7:R13" si="6">$K8*$L8*O8</f>
-        <v>3600</v>
-      </c>
-      <c r="S8" s="31">
-        <f t="shared" si="3"/>
-        <v>3400</v>
+      <c r="Z8" s="48">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="AA8" s="17">
+        <f t="shared" si="12"/>
+        <v>30720</v>
+      </c>
+      <c r="AB8" s="17">
+        <f t="shared" si="13"/>
+        <v>11520</v>
+      </c>
+      <c r="AC8" s="17">
+        <f t="shared" si="14"/>
+        <v>23040</v>
+      </c>
+      <c r="AD8" s="20">
+        <f t="shared" si="15"/>
+        <v>21760</v>
       </c>
     </row>
-    <row r="9" spans="3:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:32" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="34"/>
+      <c r="U9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" s="44"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="20"/>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -1294,46 +1627,85 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.333333333333334</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="6">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="L10" s="11">
+      <c r="K10" s="15">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="L10" s="16">
         <v>2</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="17">
         <v>45</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="18">
         <v>20</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="19">
         <v>35</v>
       </c>
-      <c r="P10" s="20">
-        <f t="shared" si="4"/>
-        <v>10800</v>
-      </c>
-      <c r="Q10" s="21">
-        <f t="shared" si="5"/>
-        <v>4800</v>
-      </c>
-      <c r="R10" s="22">
+      <c r="P10" s="17">
+        <f t="shared" si="16"/>
+        <v>8640</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" si="17"/>
+        <v>3840</v>
+      </c>
+      <c r="R10" s="19">
         <f>$K10*$L10*O10</f>
-        <v>8400</v>
-      </c>
-      <c r="S10" s="23">
-        <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>6720</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="6"/>
+        <v>6400</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="44">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="W10" s="45">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="X10" s="48">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="Y10" s="48">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="Z10" s="48">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+      <c r="AA10" s="17">
+        <f t="shared" si="12"/>
+        <v>69120</v>
+      </c>
+      <c r="AB10" s="17">
+        <f t="shared" si="13"/>
+        <v>30720</v>
+      </c>
+      <c r="AC10" s="17">
+        <f t="shared" si="14"/>
+        <v>53760</v>
+      </c>
+      <c r="AD10" s="20">
+        <f t="shared" si="15"/>
+        <v>51200</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -1347,46 +1719,85 @@
         <v>18</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17.666666666666668</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="7">
-        <f t="shared" si="2"/>
+      <c r="K11" s="15">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="L11" s="21">
+        <v>2</v>
+      </c>
+      <c r="M11" s="22">
+        <v>45</v>
+      </c>
+      <c r="N11" s="23">
+        <v>20</v>
+      </c>
+      <c r="O11" s="24">
+        <v>35</v>
+      </c>
+      <c r="P11" s="22">
+        <f t="shared" si="16"/>
+        <v>12960</v>
+      </c>
+      <c r="Q11" s="23">
+        <f t="shared" si="17"/>
+        <v>5760</v>
+      </c>
+      <c r="R11" s="24">
+        <f t="shared" si="18"/>
+        <v>10080</v>
+      </c>
+      <c r="S11" s="25">
+        <f t="shared" si="6"/>
+        <v>9600</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="44">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="W11" s="45">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="X11" s="48">
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
-      <c r="L11" s="12">
-        <v>2</v>
-      </c>
-      <c r="M11" s="24">
-        <v>45</v>
-      </c>
-      <c r="N11" s="25">
-        <v>20</v>
-      </c>
-      <c r="O11" s="26">
-        <v>35</v>
-      </c>
-      <c r="P11" s="24">
-        <f t="shared" si="4"/>
-        <v>16200</v>
-      </c>
-      <c r="Q11" s="25">
-        <f t="shared" si="5"/>
-        <v>7200</v>
-      </c>
-      <c r="R11" s="26">
-        <f t="shared" si="6"/>
-        <v>12600</v>
-      </c>
-      <c r="S11" s="27">
-        <f t="shared" si="3"/>
-        <v>12000</v>
+      <c r="Y11" s="48">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="Z11" s="48">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+      <c r="AA11" s="17">
+        <f t="shared" si="12"/>
+        <v>103680</v>
+      </c>
+      <c r="AB11" s="17">
+        <f t="shared" si="13"/>
+        <v>46080</v>
+      </c>
+      <c r="AC11" s="17">
+        <f t="shared" si="14"/>
+        <v>80640</v>
+      </c>
+      <c r="AD11" s="20">
+        <f t="shared" si="15"/>
+        <v>76800</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -1400,46 +1811,85 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="L12" s="12">
+      <c r="K12" s="15">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="L12" s="21">
         <v>4</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="22">
         <v>25</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="23">
         <v>20</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="24">
         <v>23</v>
       </c>
-      <c r="P12" s="24">
-        <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="Q12" s="25">
-        <f t="shared" si="5"/>
+      <c r="P12" s="22">
+        <f t="shared" si="16"/>
         <v>4800</v>
       </c>
-      <c r="R12" s="26">
+      <c r="Q12" s="23">
+        <f t="shared" si="17"/>
+        <v>3840</v>
+      </c>
+      <c r="R12" s="24">
+        <f t="shared" si="18"/>
+        <v>4416</v>
+      </c>
+      <c r="S12" s="25">
         <f t="shared" si="6"/>
-        <v>5520</v>
-      </c>
-      <c r="S12" s="27">
-        <f t="shared" si="3"/>
-        <v>5440</v>
+        <v>4352</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="44">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="W12" s="45">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="X12" s="48">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="Y12" s="48">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="Z12" s="48">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="AA12" s="17">
+        <f t="shared" si="12"/>
+        <v>19200</v>
+      </c>
+      <c r="AB12" s="17">
+        <f t="shared" si="13"/>
+        <v>15360</v>
+      </c>
+      <c r="AC12" s="17">
+        <f t="shared" si="14"/>
+        <v>17664</v>
+      </c>
+      <c r="AD12" s="20">
+        <f t="shared" si="15"/>
+        <v>17408</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -1453,58 +1903,107 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="9">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L13" s="13">
+      <c r="K13" s="15">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="L13" s="26">
         <v>4</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="27">
         <v>15</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="28">
         <v>5</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="29">
         <v>10</v>
       </c>
-      <c r="P13" s="28">
-        <f t="shared" si="4"/>
-        <v>1800</v>
-      </c>
-      <c r="Q13" s="29">
+      <c r="P13" s="27">
+        <f t="shared" si="16"/>
+        <v>1440</v>
+      </c>
+      <c r="Q13" s="28">
         <f>$K13*$L13*N13</f>
-        <v>600</v>
-      </c>
-      <c r="R13" s="30">
+        <v>480</v>
+      </c>
+      <c r="R13" s="29">
+        <f t="shared" si="18"/>
+        <v>960</v>
+      </c>
+      <c r="S13" s="30">
         <f t="shared" si="6"/>
-        <v>1200</v>
-      </c>
-      <c r="S13" s="31">
-        <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>960</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="44">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="W13" s="45">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="X13" s="48">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="Y13" s="48">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="Z13" s="48">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AA13" s="17">
+        <f t="shared" si="12"/>
+        <v>5760</v>
+      </c>
+      <c r="AB13" s="17">
+        <f t="shared" si="13"/>
+        <v>1920</v>
+      </c>
+      <c r="AC13" s="17">
+        <f t="shared" si="14"/>
+        <v>3840</v>
+      </c>
+      <c r="AD13" s="20">
+        <f t="shared" si="15"/>
+        <v>3840</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J14" s="39"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="15"/>
+    <row r="14" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="13"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="47"/>
     </row>
-    <row r="15" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -1512,21 +2011,37 @@
         <f>SUM(G5:G13)</f>
         <v>56</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="34">
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="38">
         <f>SUM(S5:S13)</f>
-        <v>34953.333333333336</v>
-      </c>
+        <v>27962.666666666664</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" s="40"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="34">
+        <f>SUM(AD5:AD13)</f>
+        <v>195797.33333333331</v>
+      </c>
+      <c r="AF15" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
